--- a/biology/Médecine/Cybercinétose/Cybercinétose.xlsx
+++ b/biology/Médecine/Cybercinétose/Cybercinétose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cybercin%C3%A9tose</t>
+          <t>Cybercinétose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cybercinétose (aussi appelée cybermalaise, mal du virtuel ou mal du simulateur[1]) est un malaise cinétosique qui se manifeste lors d'une exposition courte ou prolongée à un environnement virtuel[2]. Ses symptômes les plus courants sont les maux de tête, les nausées, les vomissements, la pâleur, la transpiration, la fatigue, la somnolence, la désorientation et l'apathie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cybercinétose (aussi appelée cybermalaise, mal du virtuel ou mal du simulateur) est un malaise cinétosique qui se manifeste lors d'une exposition courte ou prolongée à un environnement virtuel. Ses symptômes les plus courants sont les maux de tête, les nausées, les vomissements, la pâleur, la transpiration, la fatigue, la somnolence, la désorientation et l'apathie.
 Sur les autres projets Wikimedia :
 cybercinétose, sur le Wiktionnaire
 </t>
